--- a/SmokeTestCases.xlsx
+++ b/SmokeTestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Institutions" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,45 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Create these contacts only from Contacts related list available at Institutions.
-Mailling and Others address needs to be populated from Account page.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="524">
   <si>
     <t xml:space="preserve">Variable_Name</t>
   </si>
@@ -426,7 +389,7 @@
     <t xml:space="preserve">SmokeFRC1</t>
   </si>
   <si>
-    <t xml:space="preserve">FC - 146</t>
+    <t xml:space="preserve">FC - 149</t>
   </si>
   <si>
     <t xml:space="preserve">TestM1Institution1 - TestM1Fund1</t>
@@ -447,7 +410,7 @@
     <t xml:space="preserve">SmokeFRC3</t>
   </si>
   <si>
-    <t xml:space="preserve">FC - 147</t>
+    <t xml:space="preserve">FC - 150</t>
   </si>
   <si>
     <t xml:space="preserve">TestM1Institution2 - TestM1Fund1</t>
@@ -462,7 +425,7 @@
     <t xml:space="preserve">SmokeFRC4</t>
   </si>
   <si>
-    <t xml:space="preserve">FC - 148</t>
+    <t xml:space="preserve">FC - 151</t>
   </si>
   <si>
     <t xml:space="preserve">M1Contact4</t>
@@ -471,7 +434,7 @@
     <t xml:space="preserve">SmokeFRC5</t>
   </si>
   <si>
-    <t xml:space="preserve">FC - 149</t>
+    <t xml:space="preserve">FC - 152</t>
   </si>
   <si>
     <t xml:space="preserve">TestM1Institution2 - TestM1Fund2</t>
@@ -480,13 +443,13 @@
     <t xml:space="preserve">SmokeFRC6</t>
   </si>
   <si>
-    <t xml:space="preserve">FC - 150</t>
+    <t xml:space="preserve">FC - 153</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeFRC7</t>
   </si>
   <si>
-    <t xml:space="preserve">FC - 151</t>
+    <t xml:space="preserve">FC - 154</t>
   </si>
   <si>
     <t xml:space="preserve">TestM1Institution1 - TestM1Fund3</t>
@@ -495,7 +458,7 @@
     <t xml:space="preserve">SmokeFRC8</t>
   </si>
   <si>
-    <t xml:space="preserve">FC - 152</t>
+    <t xml:space="preserve">FC - 155</t>
   </si>
   <si>
     <t xml:space="preserve">TestM1Institution2 - TestM1Fund3</t>
@@ -504,7 +467,7 @@
     <t xml:space="preserve">SmokeFRC9</t>
   </si>
   <si>
-    <t xml:space="preserve">FC - 153</t>
+    <t xml:space="preserve">FC - 156</t>
   </si>
   <si>
     <t xml:space="preserve">Contact_EmailId</t>
@@ -558,7 +521,7 @@
     <t xml:space="preserve">SmokeC1</t>
   </si>
   <si>
-    <t xml:space="preserve">deelroom+79864@gmail.com</t>
+    <t xml:space="preserve">deelroom+69569@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeC2</t>
@@ -567,13 +530,13 @@
     <t xml:space="preserve">M1Contact2</t>
   </si>
   <si>
-    <t xml:space="preserve">deelroom+41020@gmail.com</t>
+    <t xml:space="preserve">deelroom+94693@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeC3</t>
   </si>
   <si>
-    <t xml:space="preserve">deelroom+15819@gmail.com</t>
+    <t xml:space="preserve">deelroom+25891@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeC4</t>
@@ -585,7 +548,7 @@
     <t xml:space="preserve">Mike</t>
   </si>
   <si>
-    <t xml:space="preserve">deelroom+16569@gmail.com</t>
+    <t xml:space="preserve">deelroom+71019@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeC6</t>
@@ -597,7 +560,7 @@
     <t xml:space="preserve">Reddick</t>
   </si>
   <si>
-    <t xml:space="preserve">deelroom+91676@gmail.com</t>
+    <t xml:space="preserve">deelroom+91215@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Botanical Garden</t>
@@ -615,7 +578,7 @@
     <t xml:space="preserve">Wick</t>
   </si>
   <si>
-    <t xml:space="preserve">deelroom+74427@gmail.com</t>
+    <t xml:space="preserve">deelroom+90837@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Robert</t>
@@ -636,7 +599,7 @@
     <t xml:space="preserve">Smith</t>
   </si>
   <si>
-    <t xml:space="preserve">deelroom+49521@gmail.com</t>
+    <t xml:space="preserve">deelroom+55391@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Julie</t>
@@ -675,10 +638,10 @@
     <t xml:space="preserve">Fund</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75E8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/14/2019</t>
+    <t xml:space="preserve">4.5E8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/02/2020</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeFund2</t>
@@ -696,7 +659,7 @@
     <t xml:space="preserve">TestM1Fund3</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8E7</t>
+    <t xml:space="preserve">4.2E7</t>
   </si>
   <si>
     <t xml:space="preserve">Fundraising_Name</t>
@@ -801,7 +764,7 @@
     <t xml:space="preserve">SmokePL1</t>
   </si>
   <si>
-    <t xml:space="preserve">TestCompany1 - Mar 2020</t>
+    <t xml:space="preserve">TestCompany1 - Jul 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TestCompany1</t>
@@ -810,9 +773,6 @@
     <t xml:space="preserve">Today's date</t>
   </si>
   <si>
-    <t xml:space="preserve">Idea Generation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Listing Agreement</t>
   </si>
   <si>
@@ -825,13 +785,13 @@
     <t xml:space="preserve">New/Initial Interest</t>
   </si>
   <si>
-    <t xml:space="preserve">Declined/Dead</t>
+    <t xml:space="preserve">Declined</t>
   </si>
   <si>
     <t xml:space="preserve">SmokePL2</t>
   </si>
   <si>
-    <t xml:space="preserve">TestCompany2 - Mar 2020</t>
+    <t xml:space="preserve">TestCompany2 - Jul 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TestCompany2</t>
@@ -858,7 +818,7 @@
     <t xml:space="preserve">SmokePL3</t>
   </si>
   <si>
-    <t xml:space="preserve">TestCompany3 - Mar 2020</t>
+    <t xml:space="preserve">TestCompany3 - Jul 2020</t>
   </si>
   <si>
     <t xml:space="preserve">TestCompany3</t>
@@ -1005,7 +965,7 @@
     <t xml:space="preserve">SmokeCOMM1</t>
   </si>
   <si>
-    <t xml:space="preserve">CMT - 000930</t>
+    <t xml:space="preserve">CMT - 000936</t>
   </si>
   <si>
     <t xml:space="preserve">LP</t>
@@ -1014,61 +974,61 @@
     <t xml:space="preserve">W-9</t>
   </si>
   <si>
-    <t xml:space="preserve">3/18/2020</t>
+    <t xml:space="preserve">7/2/2020</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeCOMM2</t>
   </si>
   <si>
-    <t xml:space="preserve">CMT - 000931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/20/2020</t>
+    <t xml:space="preserve">CMT - 000937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/3/2020</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeCOMM3</t>
   </si>
   <si>
-    <t xml:space="preserve">CMT - 000932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/22/2020</t>
+    <t xml:space="preserve">CMT - 000938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/5/2020</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeCOMM4</t>
   </si>
   <si>
-    <t xml:space="preserve">CMT - 000933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/23/2020</t>
+    <t xml:space="preserve">CMT - 000939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/6/2020</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeCOMM5</t>
   </si>
   <si>
-    <t xml:space="preserve">CMT - 000934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/26/2020</t>
+    <t xml:space="preserve">CMT - 000940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/9/2020</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeCOMM6</t>
   </si>
   <si>
-    <t xml:space="preserve">CMT - 000935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/29/2020</t>
+    <t xml:space="preserve">CMT - 000941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/12/2020</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeCOMM7</t>
   </si>
   <si>
-    <t xml:space="preserve">CMT - 000936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/3/2020</t>
+    <t xml:space="preserve">CMT - 000942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/17/2020</t>
   </si>
   <si>
     <t xml:space="preserve">SmokeCOMM8</t>
@@ -1134,10 +1094,10 @@
     <t xml:space="preserve">CC1</t>
   </si>
   <si>
-    <t xml:space="preserve">CC-0619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD-0215</t>
+    <t xml:space="preserve">CC-0621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-0214</t>
   </si>
   <si>
     <t xml:space="preserve">250000</t>
@@ -1146,7 +1106,7 @@
     <t xml:space="preserve">2500000</t>
   </si>
   <si>
-    <t xml:space="preserve">3/19/2020</t>
+    <t xml:space="preserve">7/7/2020</t>
   </si>
   <si>
     <t xml:space="preserve">3/26/2019</t>
@@ -1158,7 +1118,7 @@
     <t xml:space="preserve">CC2</t>
   </si>
   <si>
-    <t xml:space="preserve">CC-0620</t>
+    <t xml:space="preserve">CC-0622</t>
   </si>
   <si>
     <t xml:space="preserve">400000</t>
@@ -1179,7 +1139,7 @@
     <t xml:space="preserve">CC3</t>
   </si>
   <si>
-    <t xml:space="preserve">CC-0621</t>
+    <t xml:space="preserve">CC-0623</t>
   </si>
   <si>
     <t xml:space="preserve">1600000</t>
@@ -1194,7 +1154,7 @@
     <t xml:space="preserve">CC4</t>
   </si>
   <si>
-    <t xml:space="preserve">CC-0622</t>
+    <t xml:space="preserve">CC-0624</t>
   </si>
   <si>
     <t xml:space="preserve">1200000</t>
@@ -1215,7 +1175,7 @@
     <t xml:space="preserve">CC5</t>
   </si>
   <si>
-    <t xml:space="preserve">CC-0623</t>
+    <t xml:space="preserve">CC-0625</t>
   </si>
   <si>
     <t xml:space="preserve">800000</t>
@@ -1278,7 +1238,7 @@
     <t xml:space="preserve">FD1</t>
   </si>
   <si>
-    <t xml:space="preserve">FD-0228</t>
+    <t xml:space="preserve">FD-0226</t>
   </si>
   <si>
     <t xml:space="preserve">InvestorDistributionID</t>
@@ -1287,7 +1247,7 @@
     <t xml:space="preserve">ID1</t>
   </si>
   <si>
-    <t xml:space="preserve">ID-0625</t>
+    <t xml:space="preserve">ID-0627</t>
   </si>
   <si>
     <t xml:space="preserve">25000000</t>
@@ -1305,7 +1265,7 @@
     <t xml:space="preserve">ID2</t>
   </si>
   <si>
-    <t xml:space="preserve">ID-0626</t>
+    <t xml:space="preserve">ID-0628</t>
   </si>
   <si>
     <t xml:space="preserve">66666.667</t>
@@ -1317,7 +1277,7 @@
     <t xml:space="preserve">ID3</t>
   </si>
   <si>
-    <t xml:space="preserve">ID-0627</t>
+    <t xml:space="preserve">ID-0629</t>
   </si>
   <si>
     <t xml:space="preserve">266666.667</t>
@@ -1326,7 +1286,7 @@
     <t xml:space="preserve">ID4</t>
   </si>
   <si>
-    <t xml:space="preserve">ID-0628</t>
+    <t xml:space="preserve">ID-0630</t>
   </si>
   <si>
     <t xml:space="preserve">15000000</t>
@@ -1344,10 +1304,7 @@
     <t xml:space="preserve">ID5</t>
   </si>
   <si>
-    <t xml:space="preserve">FD-0248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID-0629</t>
+    <t xml:space="preserve">ID-0631</t>
   </si>
   <si>
     <t xml:space="preserve">133333.333</t>
@@ -1380,6 +1337,9 @@
     <t xml:space="preserve">Acct 2 Contact, Inst</t>
   </si>
   <si>
+    <t xml:space="preserve">7/4/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Institution&lt;break&gt;ContactTransferAcc 1</t>
   </si>
   <si>
@@ -1443,13 +1403,13 @@
     <t xml:space="preserve">SuperAdmin</t>
   </si>
   <si>
-    <t xml:space="preserve">PE</t>
+    <t xml:space="preserve">PERE</t>
   </si>
   <si>
     <t xml:space="preserve">Admin</t>
   </si>
   <si>
-    <t xml:space="preserve">PE Standard User</t>
+    <t xml:space="preserve">PE Real Estate</t>
   </si>
   <si>
     <t xml:space="preserve">Salesforce Platform</t>
@@ -1461,7 +1421,10 @@
     <t xml:space="preserve">CRMUser1</t>
   </si>
   <si>
-    <t xml:space="preserve">User</t>
+    <t xml:space="preserve">User28335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automationnavatar+61008@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Nick</t>
@@ -1663,7 +1626,7 @@
     <numFmt numFmtId="169" formatCode="\$#,##0.00_);[RED]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="170" formatCode="[$-409]M/D/YYYY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1699,21 +1662,6 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1987,7 +1935,7 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
@@ -2010,11 +1958,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.67"/>
@@ -2514,21 +2462,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>189</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>282</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>197</v>
@@ -2536,24 +2484,24 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>197</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>286</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>287</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>205</v>
@@ -2561,10 +2509,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>289</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>205</v>
@@ -2598,7 +2546,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.29"/>
@@ -2606,14 +2554,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="35.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="35.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="33.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.67"/>
@@ -2624,87 +2572,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>309</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>20000000</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>311</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>312</v>
       </c>
       <c r="P2" s="21"/>
       <c r="T2" s="22" t="s">
@@ -2713,49 +2661,49 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>314</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>10000000</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>311</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T3" s="22"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>15000000</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>7.5</v>
@@ -2764,22 +2712,22 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>320</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>25000000</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>7.5</v>
@@ -2788,43 +2736,43 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>323</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>5000000</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>326</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>52</v>
@@ -2833,22 +2781,22 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>12000000</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>52</v>
@@ -2857,31 +2805,31 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>20000000</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>312</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>2000000</v>
@@ -2893,45 +2841,45 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>338</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>20000000</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>311</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>243</v>
@@ -2949,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
@@ -2964,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3013,245 +2961,245 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="K2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>375</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>382</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3236,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
@@ -3299,66 +3247,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>189</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>347</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>343</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>344</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>193</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>197</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>5500000</v>
@@ -3367,16 +3315,16 @@
         <v>2000000</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>750000</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>0</v>
@@ -3413,7 +3361,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.67"/>
@@ -3428,48 +3376,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>189</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>398</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>400</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>15000000</v>
@@ -3509,7 +3457,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.67"/>
@@ -3524,200 +3472,200 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>398</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>406</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>413</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>423</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>100</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3744,7 +3692,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.57"/>
@@ -3757,88 +3705,88 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>433</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>437</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>315</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>438</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>441</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>445</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>315</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3810,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3880,65 +3828,68 @@
         <v>112</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="G2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="17" t="s">
         <v>459</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>460</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>461</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>457</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>458</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>462</v>
@@ -4213,7 +4164,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>504</v>
@@ -4411,10 +4362,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4452,7 +4403,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>518</v>
       </c>
@@ -4472,6 +4423,7 @@
         <v>523</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4499,7 +4451,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.7"/>
@@ -4741,13 +4693,13 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.42"/>
@@ -4757,7 +4709,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="27.71"/>
@@ -4769,12 +4721,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="26.42"/>
@@ -5239,7 +5191,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5259,11 +5210,11 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.15"/>
@@ -5642,14 +5593,14 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
@@ -5716,7 +5667,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>240</v>
       </c>
@@ -5736,77 +5687,77 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>246</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>252</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>256</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>25</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>261</v>
-      </c>
       <c r="G4" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>246</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>42</v>
@@ -5859,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>11</v>
@@ -5868,16 +5819,16 @@
         <v>12</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>21</v>
@@ -5889,21 +5840,21 @@
         <v>113</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>270</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>76</v>
@@ -5924,24 +5875,24 @@
         <v>8867765</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>276</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>30</v>
@@ -5962,24 +5913,24 @@
         <v>1084566</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>278</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>76</v>
@@ -6000,7 +5951,7 @@
         <v>45654656</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/SmokeTestCases.xlsx
+++ b/SmokeTestCases.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F22D8E5-D1A0-4E10-9E1C-2E5B04237880}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="622" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Institutions" sheetId="22" r:id="rId1"/>
@@ -24,9 +25,8 @@
     <sheet name="InvestorDistribution" sheetId="43" r:id="rId15"/>
     <sheet name="Activities" sheetId="39" r:id="rId16"/>
     <sheet name="Users" sheetId="29" r:id="rId17"/>
-    <sheet name="SpecialChar" sheetId="10" r:id="rId18"/>
-    <sheet name="CustomEmailFolder" sheetId="35" r:id="rId19"/>
-    <sheet name="Report" sheetId="36" r:id="rId20"/>
+    <sheet name="CustomEmailFolder" sheetId="35" r:id="rId18"/>
+    <sheet name="Report" sheetId="36" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -34,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,94 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="522">
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>ADMIN REG</t>
-  </si>
-  <si>
-    <t>FOLDER</t>
-  </si>
-  <si>
-    <t>TARGET REG</t>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
-    <t>FOLDER_NAME</t>
-  </si>
-  <si>
-    <t>TAR_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>TAR_LAST_NAME</t>
-  </si>
-  <si>
-    <t>NICK_NAME</t>
-  </si>
-  <si>
-    <t>FIRM_NAME</t>
-  </si>
-  <si>
-    <t>XYZ_NAME</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>scv</t>
-  </si>
-  <si>
-    <t>adf</t>
-  </si>
-  <si>
-    <t>asdfasds</t>
-  </si>
-  <si>
-    <t>afdvsdv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vsdfvs </t>
-  </si>
-  <si>
-    <t>sdvs</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>Invalid Folder Name</t>
-  </si>
-  <si>
-    <t>(Internal)</t>
-  </si>
-  <si>
-    <t>(Shared)</t>
-  </si>
-  <si>
-    <t>INVALID_FOLDER_NAME</t>
-  </si>
-  <si>
-    <t>INVALID_FOLDER_DESCRIPTION</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="487">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -224,21 +137,9 @@
     <t>Commitment_ID</t>
   </si>
   <si>
-    <t>PE&lt;,&gt;,:,",/,\,?,*,{,."</t>
-  </si>
-  <si>
-    <t>ADMIN&lt;,&gt;,:,",/,\,?,*,{,."</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
-    <t>CRM"&lt;,&gt;,:,",/,\,?,*,{,.</t>
-  </si>
-  <si>
-    <t>User1"&lt;,&gt;,:,",/,\,?,*,{,.</t>
-  </si>
-  <si>
     <t>Mailing_Street</t>
   </si>
   <si>
@@ -257,12 +158,6 @@
     <t>Mailing_State</t>
   </si>
   <si>
-    <t>Folder []{}/\?|&lt;&gt;*:</t>
-  </si>
-  <si>
-    <t>(Common)</t>
-  </si>
-  <si>
     <t>Record_Type</t>
   </si>
   <si>
@@ -503,9 +398,6 @@
     <t>Email_Template_Folder_Label</t>
   </si>
   <si>
-    <t>PE Test Email Folder</t>
-  </si>
-  <si>
     <t>Public_Folder_Access</t>
   </si>
   <si>
@@ -521,9 +413,6 @@
     <t>Email_Template_Name</t>
   </si>
   <si>
-    <t>PE Test Custom Email Template</t>
-  </si>
-  <si>
     <t>PE Test Email Description</t>
   </si>
   <si>
@@ -1472,12 +1361,6 @@
     <t>CMT - 000936</t>
   </si>
   <si>
-    <t>Custom Report Folder75932</t>
-  </si>
-  <si>
-    <t>Custom Report93397</t>
-  </si>
-  <si>
     <t>deelroom+16569@gmail.com</t>
   </si>
   <si>
@@ -1635,17 +1518,29 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>PETestEmailFolder</t>
+  </si>
+  <si>
+    <t>PETestCustomEmailTemplate</t>
+  </si>
+  <si>
+    <t>CustomReportFolder</t>
+  </si>
+  <si>
+    <t>CustomReport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1690,7 +1585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,18 +1594,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1718,91 +1607,66 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2082,22 +1946,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2123,112 +1987,112 @@
     <col min="23" max="23" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O3">
         <v>210310</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="V3">
         <v>3636366336</v>
@@ -2237,41 +2101,41 @@
         <v>554477331</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O5">
         <v>900268</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="V5">
         <v>66228811</v>
@@ -2280,297 +2144,297 @@
         <v>330548934</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="I12" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="J12" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K12" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O12">
         <v>281001</v>
       </c>
       <c r="P12" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="Q12" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="R12" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="S12" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="T12">
         <v>200300</v>
       </c>
       <c r="U12" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="V12">
         <v>2121212121</v>
       </c>
-      <c r="W12" s="18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="W12" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="J13" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K13" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="M13" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O13">
         <v>201301</v>
       </c>
       <c r="P13" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="Q13" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="R13" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="S13" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="T13">
         <v>10016</v>
       </c>
       <c r="U13" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="V13">
         <v>98765429</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="I14" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="J14" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K14" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="M14" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="N14" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="O14">
         <v>500700</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="Q14" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="R14" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="S14" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="T14">
         <v>2834</v>
       </c>
       <c r="U14" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="V14">
         <v>1629539588</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="H15" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="I15" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="J15" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="K15" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="L15" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="M15" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="N15" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="O15">
         <v>560003</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="Q15" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="R15" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="S15" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="T15">
         <v>560003</v>
       </c>
       <c r="U15" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="V15">
         <v>9999999999</v>
@@ -2578,7 +2442,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1"/>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2586,7 +2450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2594,7 +2458,7 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
@@ -2602,65 +2466,65 @@
     <col min="4" max="4" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +2533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
@@ -2677,7 +2541,7 @@
       <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1" collapsed="1"/>
@@ -2689,10 +2553,10 @@
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.5703125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5703125" style="15" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="22" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="21.42578125" customWidth="1" collapsed="1"/>
@@ -2701,352 +2565,352 @@
     <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="N1" s="22" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="H1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E2">
         <v>20000000</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
-        <v>474</v>
-      </c>
-      <c r="P2" s="21"/>
-      <c r="T2" s="31" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>435</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="T2" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E3">
         <v>10000000</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="H3" t="s">
-        <v>475</v>
-      </c>
-      <c r="T3" s="31"/>
-    </row>
-    <row r="4" spans="1:20">
+        <v>436</v>
+      </c>
+      <c r="T3" s="28"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E4">
         <v>15000000</v>
       </c>
       <c r="H4" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="J4">
         <v>7.5</v>
       </c>
-      <c r="T4" s="31"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="E5">
         <v>25000000</v>
       </c>
       <c r="H5" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="J5">
         <v>7.5</v>
       </c>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="T5" s="28"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="E6">
         <v>5000000</v>
       </c>
       <c r="H6" t="s">
-        <v>481</v>
-      </c>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20">
+        <v>442</v>
+      </c>
+      <c r="T6" s="28"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="E7">
         <v>2000000</v>
       </c>
       <c r="H7" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20">
+        <v>40</v>
+      </c>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="E8">
         <v>12000000</v>
       </c>
       <c r="H8" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="9" spans="1:20">
+        <v>40</v>
+      </c>
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E9">
         <v>20000000</v>
       </c>
       <c r="F9" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="H9" t="s">
-        <v>474</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="L9" s="17">
+        <v>435</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="L9" s="14">
         <v>2000000</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="15">
         <v>18000000</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="14">
         <v>0</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="R9" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="P9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>448</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E10">
         <v>20000000</v>
       </c>
       <c r="F10" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="G10" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="H10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K10" s="18">
+        <v>155</v>
+      </c>
+      <c r="K10" s="15">
         <v>2000000</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <v>2000000</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="15">
         <v>18000000</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="15">
         <v>0</v>
       </c>
-      <c r="O10" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="P10" s="17">
+      <c r="O10" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="P10" s="14">
         <v>0</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="17">
         <v>4800000.0010000002</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="17">
         <v>4000000</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="17">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3059,14 +2923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3080,250 +2944,250 @@
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="18" t="s">
-        <v>342</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="F2" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="H2" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="I2" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="J2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>397</v>
+        <v>436</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>360</v>
       </c>
       <c r="M2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="18" t="s">
-        <v>343</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="F3" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="G3" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="H3" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="I3" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="J3" t="s">
-        <v>475</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>399</v>
+        <v>436</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>362</v>
       </c>
       <c r="M3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="18" t="s">
-        <v>344</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="E4" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="F4" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="G4" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="I4" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="J4" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="K4" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="L4" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="M4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="18" t="s">
-        <v>345</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="D5" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="E5" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="F5" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="G5" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="H5" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="I5" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="J5" t="s">
-        <v>475</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>402</v>
+        <v>436</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>365</v>
       </c>
       <c r="M5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="18" t="s">
-        <v>346</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="D6" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="E6" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="G6" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="H6" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="I6" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="J6" t="s">
-        <v>475</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>403</v>
+        <v>436</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="M6" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3332,14 +3196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3353,97 +3217,97 @@
     <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="K1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>424</v>
+        <v>72</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>387</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="F2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G2" s="17">
+        <v>436</v>
+      </c>
+      <c r="G2" s="14">
         <v>5500000</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="14">
         <v>2000000</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="K2" s="17">
+      <c r="I2" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="K2" s="14">
         <v>750000</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="M2" s="18">
+      <c r="L2" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="M2" s="15">
         <v>0</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="15">
         <v>0</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="15">
         <v>10</v>
       </c>
     </row>
@@ -3453,14 +3317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3471,53 +3335,53 @@
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="D2">
         <v>15000000</v>
@@ -3538,14 +3402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3557,205 +3421,205 @@
     <col min="10" max="10" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="I1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" t="s">
+        <v>466</v>
+      </c>
+      <c r="I3" t="s">
+        <v>466</v>
+      </c>
+      <c r="J3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" t="s">
         <v>437</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="E4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H4" t="s">
+        <v>468</v>
+      </c>
+      <c r="I4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G5" t="s">
+        <v>471</v>
+      </c>
+      <c r="H5" t="s">
+        <v>471</v>
+      </c>
+      <c r="I5" t="s">
+        <v>471</v>
+      </c>
+      <c r="J5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" t="s">
         <v>438</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I2" t="s">
-        <v>503</v>
-      </c>
-      <c r="J2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E3" t="s">
-        <v>502</v>
-      </c>
-      <c r="F3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G3" t="s">
-        <v>505</v>
-      </c>
-      <c r="H3" t="s">
-        <v>505</v>
-      </c>
-      <c r="I3" t="s">
-        <v>505</v>
-      </c>
-      <c r="J3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E4" t="s">
-        <v>460</v>
-      </c>
-      <c r="F4" t="s">
-        <v>448</v>
-      </c>
-      <c r="G4" t="s">
-        <v>507</v>
-      </c>
-      <c r="H4" t="s">
-        <v>507</v>
-      </c>
-      <c r="I4" t="s">
-        <v>507</v>
-      </c>
-      <c r="J4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B5" t="s">
-        <v>514</v>
-      </c>
-      <c r="C5" t="s">
-        <v>518</v>
-      </c>
-      <c r="D5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5" t="s">
-        <v>508</v>
-      </c>
-      <c r="F5" t="s">
-        <v>509</v>
-      </c>
-      <c r="G5" t="s">
-        <v>510</v>
-      </c>
-      <c r="H5" t="s">
-        <v>510</v>
-      </c>
-      <c r="I5" t="s">
-        <v>510</v>
-      </c>
-      <c r="J5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B6" t="s">
-        <v>520</v>
-      </c>
-      <c r="C6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D6" t="s">
-        <v>477</v>
-      </c>
       <c r="E6" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="F6" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="G6" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="H6" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="I6" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="J6" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -3764,14 +3628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3780,93 +3644,93 @@
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B7" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" t="s">
-        <v>278</v>
-      </c>
       <c r="E7" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3875,104 +3739,104 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="19" collapsed="1"/>
     <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="16384" width="19" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q14" r:id="rId1" display="www.facebook.com"/>
-    <hyperlink ref="R14" r:id="rId2" display="www.linkedin.com"/>
-    <hyperlink ref="Q15" r:id="rId3" display="www.facebook.com"/>
-    <hyperlink ref="R15" r:id="rId4" display="www.linkedin.com"/>
-    <hyperlink ref="Q3" r:id="rId5" display="www.facebook.com"/>
-    <hyperlink ref="R3" r:id="rId6" display="www.linkedin.com"/>
+    <hyperlink ref="Q14" r:id="rId1" display="www.facebook.com" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="R14" r:id="rId2" display="www.linkedin.com" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
+    <hyperlink ref="Q15" r:id="rId3" display="www.facebook.com" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
+    <hyperlink ref="R15" r:id="rId4" display="www.linkedin.com" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
+    <hyperlink ref="Q3" r:id="rId5" display="www.facebook.com" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
+    <hyperlink ref="R3" r:id="rId6" display="www.linkedin.com" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
@@ -3980,213 +3844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1">
-      <c r="A1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" collapsed="1"/>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4199,215 +3864,79 @@
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>484</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" t="s">
-        <v>460</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" t="s">
-        <v>461</v>
-      </c>
-      <c r="X3" s="30"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="X4" s="30"/>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5">
-        <v>5000000</v>
-      </c>
-      <c r="X5" s="30"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="X6" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="X2:X6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4418,47 +3947,47 @@
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="C2" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4467,15 +3996,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" t="s">
+        <v>423</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" t="s">
+        <v>424</v>
+      </c>
+      <c r="X3" s="27"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="X4" s="27"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5">
+        <v>5000000</v>
+      </c>
+      <c r="X5" s="27"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="X6" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="X2:X6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4487,217 +4152,217 @@
     <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4706,7 +4371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4714,7 +4379,7 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4750,242 +4415,242 @@
     <col min="34" max="34" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="14.42578125" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15" style="9" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15" style="6" customWidth="1" collapsed="1"/>
     <col min="38" max="38" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="39" max="39" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="S1" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL1" s="3"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L7" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="M7" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AL1" s="4"/>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" t="s">
-        <v>103</v>
-      </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O7">
         <v>654927</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>281001</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="M8" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="N8" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="O8">
         <v>200300</v>
       </c>
       <c r="P8" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="Q8">
         <v>2121212121</v>
@@ -4997,59 +4662,59 @@
         <v>4141414141</v>
       </c>
       <c r="T8" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="U8">
         <v>5151515151</v>
       </c>
-      <c r="AJ8" s="9"/>
+      <c r="AJ8" s="6"/>
       <c r="AK8"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="G9" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="H9" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>201301</v>
       </c>
       <c r="K9" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="L9" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="M9" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="N9" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="O9">
         <v>10016</v>
       </c>
       <c r="P9" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="Q9">
         <v>98765429</v>
@@ -5061,59 +4726,59 @@
         <v>4141414141</v>
       </c>
       <c r="T9" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="U9">
         <v>5151515151</v>
       </c>
-      <c r="AJ9" s="9"/>
+      <c r="AJ9" s="6"/>
       <c r="AK9"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="H10" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="I10" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="J10">
         <v>500700</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="M10" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="N10" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="O10">
         <v>2834</v>
       </c>
       <c r="P10" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="Q10">
         <v>1629539588</v>
@@ -5125,62 +4790,62 @@
         <v>4141414141</v>
       </c>
       <c r="T10" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="U10">
         <v>5151515151</v>
       </c>
-      <c r="AJ10" s="9"/>
+      <c r="AJ10" s="6"/>
       <c r="AK10"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="G11" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="H11" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="I11" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="J11">
         <v>560003</v>
       </c>
       <c r="K11" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="L11" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="M11" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="N11" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="O11">
         <v>560003</v>
       </c>
       <c r="P11" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>9999999999</v>
@@ -5192,15 +4857,15 @@
         <v>9955875125</v>
       </c>
       <c r="T11" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="U11">
         <v>9595956632</v>
       </c>
       <c r="V11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ11" s="9"/>
+        <v>169</v>
+      </c>
+      <c r="AJ11" s="6"/>
       <c r="AK11"/>
     </row>
   </sheetData>
@@ -5211,7 +4876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,124 +4884,124 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="41.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.28515625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="G2">
         <v>2019</v>
       </c>
       <c r="H2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>269</v>
+      <c r="F3" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="G3">
         <v>2020</v>
       </c>
       <c r="H3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="G4">
         <v>2021</v>
       </c>
       <c r="H4" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -5346,7 +5011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5354,7 +5019,7 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5365,153 +5030,153 @@
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5520,49 +5185,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5571,14 +5236,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5598,153 +5263,153 @@
     <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1">
-      <c r="A1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="O2" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="L3">
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5754,14 +5419,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
@@ -5776,68 +5441,68 @@
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>201300</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>243634535</v>
@@ -5846,36 +5511,36 @@
         <v>8867765</v>
       </c>
       <c r="K2" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="G3">
         <v>400523</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>599546546</v>
@@ -5884,36 +5549,36 @@
         <v>1084566</v>
       </c>
       <c r="K3" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="L3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>500900</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I4">
         <v>745465656</v>
@@ -5922,7 +5587,7 @@
         <v>45654656</v>
       </c>
       <c r="K4" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/SmokeTestCases.xlsx
+++ b/SmokeTestCases.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F22D8E5-D1A0-4E10-9E1C-2E5B04237880}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="622" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Institutions" sheetId="22" r:id="rId1"/>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="485">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -128,9 +127,6 @@
     <t>User_Profile</t>
   </si>
   <si>
-    <t>PE Standard User</t>
-  </si>
-  <si>
     <t>Fund_Type</t>
   </si>
   <si>
@@ -1313,120 +1309,12 @@
     <t>Capital_Returned_NonRecallable</t>
   </si>
   <si>
-    <t>10/14/2019</t>
-  </si>
-  <si>
-    <t>FC - 146</t>
-  </si>
-  <si>
-    <t>FC - 147</t>
-  </si>
-  <si>
-    <t>FC - 148</t>
-  </si>
-  <si>
-    <t>FC - 149</t>
-  </si>
-  <si>
-    <t>FC - 150</t>
-  </si>
-  <si>
-    <t>FC - 151</t>
-  </si>
-  <si>
-    <t>FC - 152</t>
-  </si>
-  <si>
-    <t>FC - 153</t>
-  </si>
-  <si>
     <t>20000000</t>
   </si>
   <si>
     <t>10000000</t>
   </si>
   <si>
-    <t>CMT - 000932</t>
-  </si>
-  <si>
-    <t>CMT - 000933</t>
-  </si>
-  <si>
-    <t>CMT - 000934</t>
-  </si>
-  <si>
-    <t>CMT - 000935</t>
-  </si>
-  <si>
-    <t>CMT - 000936</t>
-  </si>
-  <si>
-    <t>deelroom+16569@gmail.com</t>
-  </si>
-  <si>
-    <t>deelroom+91676@gmail.com</t>
-  </si>
-  <si>
-    <t>deelroom+79864@gmail.com</t>
-  </si>
-  <si>
-    <t>deelroom+41020@gmail.com</t>
-  </si>
-  <si>
-    <t>deelroom+15819@gmail.com</t>
-  </si>
-  <si>
-    <t>3/18/2020</t>
-  </si>
-  <si>
-    <t>3/20/2020</t>
-  </si>
-  <si>
-    <t>CMT - 000930</t>
-  </si>
-  <si>
-    <t>CMT - 000931</t>
-  </si>
-  <si>
-    <t>3/22/2020</t>
-  </si>
-  <si>
-    <t>3/23/2020</t>
-  </si>
-  <si>
-    <t>3.75E8</t>
-  </si>
-  <si>
-    <t>3/26/2020</t>
-  </si>
-  <si>
-    <t>3/29/2020</t>
-  </si>
-  <si>
-    <t>2.8E7</t>
-  </si>
-  <si>
-    <t>4/3/2020</t>
-  </si>
-  <si>
-    <t>TestCompany1 - Mar 2020</t>
-  </si>
-  <si>
-    <t>TestCompany2 - Mar 2020</t>
-  </si>
-  <si>
-    <t>TestCompany3 - Mar 2020</t>
-  </si>
-  <si>
-    <t>deelroom+74427@gmail.com</t>
-  </si>
-  <si>
-    <t>deelroom+49521@gmail.com</t>
-  </si>
-  <si>
-    <t>3/19/2020</t>
-  </si>
-  <si>
     <t>400000</t>
   </si>
   <si>
@@ -1439,9 +1327,6 @@
     <t>500,000.000</t>
   </si>
   <si>
-    <t>DD-0215</t>
-  </si>
-  <si>
     <t>CC-0619</t>
   </si>
   <si>
@@ -1454,9 +1339,6 @@
     <t>CC-0622</t>
   </si>
   <si>
-    <t>CC-0623</t>
-  </si>
-  <si>
     <t>25000000</t>
   </si>
   <si>
@@ -1496,9 +1378,6 @@
     <t>2399999.999</t>
   </si>
   <si>
-    <t>FD-0228</t>
-  </si>
-  <si>
     <t>ID-0625</t>
   </si>
   <si>
@@ -1508,37 +1387,151 @@
     <t>ID-0627</t>
   </si>
   <si>
-    <t>ID-0628</t>
-  </si>
-  <si>
-    <t>ID-0629</t>
-  </si>
-  <si>
-    <t>FD-0248</t>
+    <t>VC Standard Profile User</t>
+  </si>
+  <si>
+    <t>CustomReportFolder33167</t>
+  </si>
+  <si>
+    <t>CustomReport27301</t>
+  </si>
+  <si>
+    <t>PETestEmailFolder18888</t>
+  </si>
+  <si>
+    <t>PETestCustomEmailTemplate36540</t>
+  </si>
+  <si>
+    <t>deelroom+88755@gmail.com</t>
+  </si>
+  <si>
+    <t>deelroom+58133@gmail.com</t>
+  </si>
+  <si>
+    <t>deelroom+96564@gmail.com</t>
+  </si>
+  <si>
+    <t>deelroom+86783@gmail.com</t>
+  </si>
+  <si>
+    <t>deelroom+41003@gmail.com</t>
+  </si>
+  <si>
+    <t>7/16/2020</t>
+  </si>
+  <si>
+    <t>FC - 136</t>
+  </si>
+  <si>
+    <t>FC - 137</t>
+  </si>
+  <si>
+    <t>FC - 138</t>
+  </si>
+  <si>
+    <t>FC - 139</t>
+  </si>
+  <si>
+    <t>FC - 140</t>
+  </si>
+  <si>
+    <t>FC - 141</t>
+  </si>
+  <si>
+    <t>FC - 142</t>
+  </si>
+  <si>
+    <t>FC - 143</t>
+  </si>
+  <si>
+    <t>7/17/2020</t>
+  </si>
+  <si>
+    <t>7/18/2020</t>
+  </si>
+  <si>
+    <t>CMT - 000922</t>
+  </si>
+  <si>
+    <t>CMT - 000923</t>
+  </si>
+  <si>
+    <t>7/20/2020</t>
+  </si>
+  <si>
+    <t>7/21/2020</t>
+  </si>
+  <si>
+    <t>CMT - 000924</t>
+  </si>
+  <si>
+    <t>CMT - 000925</t>
+  </si>
+  <si>
+    <t>4.5E8</t>
+  </si>
+  <si>
+    <t>7/24/2020</t>
+  </si>
+  <si>
+    <t>CMT - 000926</t>
+  </si>
+  <si>
+    <t>7/27/2020</t>
+  </si>
+  <si>
+    <t>CMT - 000927</t>
+  </si>
+  <si>
+    <t>4.2E7</t>
+  </si>
+  <si>
+    <t>8/1/2020</t>
+  </si>
+  <si>
+    <t>CMT - 000928</t>
+  </si>
+  <si>
+    <t>TestCompany1 - Jul 2020</t>
+  </si>
+  <si>
+    <t>TestCompany2 - Jul 2020</t>
+  </si>
+  <si>
+    <t>TestCompany3 - Jul 2020</t>
+  </si>
+  <si>
+    <t>deelroom+74310@gmail.com</t>
+  </si>
+  <si>
+    <t>deelroom+91109@gmail.com</t>
+  </si>
+  <si>
+    <t>DD-0214</t>
+  </si>
+  <si>
+    <t>CC-0618</t>
+  </si>
+  <si>
+    <t>FD-0226</t>
+  </si>
+  <si>
+    <t>ID-0623</t>
+  </si>
+  <si>
+    <t>ID-0624</t>
   </si>
   <si>
     <t>User</t>
-  </si>
-  <si>
-    <t>PETestEmailFolder</t>
-  </si>
-  <si>
-    <t>PETestCustomEmailTemplate</t>
-  </si>
-  <si>
-    <t>CustomReportFolder</t>
-  </si>
-  <si>
-    <t>CustomReport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1630,10 +1623,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1648,7 +1641,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1953,10 +1946,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
@@ -1995,104 +1988,104 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
       </c>
       <c r="O3">
         <v>210310</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V3">
         <v>3636366336</v>
@@ -2103,39 +2096,39 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>49</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
       </c>
       <c r="O5">
         <v>900268</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V5">
         <v>66228811</v>
@@ -2146,180 +2139,180 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
         <v>316</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>317</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>318</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>320</v>
       </c>
-      <c r="L12" t="s">
-        <v>321</v>
-      </c>
       <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
         <v>43</v>
-      </c>
-      <c r="N12" t="s">
-        <v>44</v>
       </c>
       <c r="O12">
         <v>281001</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
+        <v>321</v>
+      </c>
+      <c r="R12" t="s">
         <v>322</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>323</v>
-      </c>
-      <c r="S12" t="s">
-        <v>324</v>
       </c>
       <c r="T12">
         <v>200300</v>
       </c>
       <c r="U12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V12">
         <v>2121212121</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
+        <v>325</v>
+      </c>
+      <c r="I13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J13" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" t="s">
+        <v>319</v>
+      </c>
+      <c r="L13" t="s">
         <v>326</v>
       </c>
-      <c r="I13" t="s">
-        <v>318</v>
-      </c>
-      <c r="J13" t="s">
-        <v>319</v>
-      </c>
-      <c r="K13" t="s">
-        <v>320</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>327</v>
       </c>
-      <c r="M13" t="s">
-        <v>328</v>
-      </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O13">
         <v>201301</v>
       </c>
       <c r="P13" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>371</v>
+      </c>
+      <c r="R13" t="s">
         <v>329</v>
       </c>
-      <c r="Q13" t="s">
-        <v>372</v>
-      </c>
-      <c r="R13" t="s">
-        <v>330</v>
-      </c>
       <c r="S13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T13">
         <v>10016</v>
       </c>
       <c r="U13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V13">
         <v>98765429</v>
@@ -2327,55 +2320,55 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I14" t="s">
+        <v>317</v>
+      </c>
+      <c r="J14" t="s">
         <v>318</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>319</v>
       </c>
-      <c r="K14" t="s">
-        <v>320</v>
-      </c>
       <c r="L14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O14">
         <v>500700</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q14" t="s">
+        <v>332</v>
+      </c>
+      <c r="R14" t="s">
         <v>333</v>
       </c>
-      <c r="R14" t="s">
-        <v>334</v>
-      </c>
       <c r="S14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T14">
         <v>2834</v>
       </c>
       <c r="U14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V14">
         <v>1629539588</v>
@@ -2383,58 +2376,58 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="H15" t="s">
         <v>337</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>317</v>
+      </c>
+      <c r="J15" t="s">
         <v>338</v>
       </c>
-      <c r="I15" t="s">
-        <v>318</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>339</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>340</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
+        <v>388</v>
+      </c>
+      <c r="N15" t="s">
         <v>341</v>
-      </c>
-      <c r="M15" t="s">
-        <v>389</v>
-      </c>
-      <c r="N15" t="s">
-        <v>342</v>
       </c>
       <c r="O15">
         <v>560003</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q15" t="s">
+        <v>340</v>
+      </c>
+      <c r="R15" t="s">
+        <v>388</v>
+      </c>
+      <c r="S15" t="s">
         <v>341</v>
-      </c>
-      <c r="R15" t="s">
-        <v>389</v>
-      </c>
-      <c r="S15" t="s">
-        <v>342</v>
       </c>
       <c r="T15">
         <v>560003</v>
       </c>
       <c r="U15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V15">
         <v>9999999999</v>
@@ -2442,7 +2435,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2450,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2477,54 +2470,54 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" t="s">
         <v>262</v>
       </c>
-      <c r="B2" t="s">
-        <v>263</v>
-      </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
         <v>264</v>
       </c>
-      <c r="B3" t="s">
-        <v>265</v>
-      </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
         <v>266</v>
       </c>
-      <c r="B4" t="s">
-        <v>267</v>
-      </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="s">
         <v>268</v>
       </c>
-      <c r="B5" t="s">
-        <v>269</v>
-      </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2533,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
@@ -2570,138 +2563,138 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2">
         <v>20000000</v>
       </c>
       <c r="F2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" t="s">
         <v>282</v>
       </c>
-      <c r="G2" t="s">
-        <v>283</v>
-      </c>
       <c r="H2" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="P2" s="18"/>
       <c r="T2" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3">
         <v>10000000</v>
       </c>
       <c r="F3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" t="s">
         <v>282</v>
       </c>
-      <c r="G3" t="s">
-        <v>283</v>
-      </c>
       <c r="H3" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E4">
         <v>15000000</v>
       </c>
       <c r="H4" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="J4">
         <v>7.5</v>
@@ -2710,22 +2703,22 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5">
         <v>25000000</v>
       </c>
       <c r="H5" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="J5">
         <v>7.5</v>
@@ -2734,100 +2727,100 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6">
         <v>5000000</v>
       </c>
       <c r="H6" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7">
         <v>2000000</v>
       </c>
       <c r="H7" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T7" s="28"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8">
         <v>12000000</v>
       </c>
       <c r="H8" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T8" s="28"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E9">
         <v>20000000</v>
       </c>
       <c r="F9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" t="s">
         <v>282</v>
       </c>
-      <c r="G9" t="s">
-        <v>283</v>
-      </c>
       <c r="H9" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L9" s="14">
         <v>2000000</v>
@@ -2839,48 +2832,48 @@
         <v>0</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P9" s="14">
         <v>0</v>
       </c>
       <c r="Q9" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="R9" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>411</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E10">
         <v>20000000</v>
       </c>
       <c r="F10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" t="s">
         <v>282</v>
       </c>
-      <c r="G10" t="s">
-        <v>283</v>
-      </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K10" s="15">
         <v>2000000</v>
@@ -2895,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P10" s="14">
         <v>0</v>
@@ -2910,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +2916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2949,245 +2942,245 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>303</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="E2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" t="s">
         <v>384</v>
       </c>
-      <c r="G2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H2" t="s">
-        <v>385</v>
-      </c>
       <c r="I2" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J2" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G3" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I3" t="s">
         <v>458</v>
       </c>
-      <c r="C3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" t="s">
-        <v>453</v>
-      </c>
-      <c r="G3" t="s">
-        <v>453</v>
-      </c>
-      <c r="H3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I3" t="s">
-        <v>451</v>
-      </c>
       <c r="J3" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M3" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J4" t="s">
         <v>459</v>
       </c>
-      <c r="C4" t="s">
-        <v>456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>376</v>
       </c>
-      <c r="G4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I4" t="s">
-        <v>451</v>
-      </c>
-      <c r="J4" t="s">
-        <v>436</v>
-      </c>
-      <c r="K4" t="s">
-        <v>377</v>
-      </c>
       <c r="L4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="M4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="E5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" t="s">
         <v>381</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H5" t="s">
         <v>382</v>
       </c>
-      <c r="G5" t="s">
-        <v>382</v>
-      </c>
-      <c r="H5" t="s">
-        <v>383</v>
-      </c>
       <c r="I5" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J5" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D6" t="s">
         <v>461</v>
       </c>
-      <c r="C6" t="s">
-        <v>456</v>
-      </c>
-      <c r="D6" t="s">
-        <v>438</v>
-      </c>
       <c r="E6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" t="s">
         <v>378</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H6" t="s">
         <v>379</v>
       </c>
-      <c r="G6" t="s">
-        <v>379</v>
-      </c>
-      <c r="H6" t="s">
-        <v>380</v>
-      </c>
       <c r="I6" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J6" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3196,7 +3189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3222,66 +3215,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="G2" s="14">
         <v>5500000</v>
@@ -3290,16 +3283,16 @@
         <v>2000000</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K2" s="14">
         <v>750000</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M2" s="15">
         <v>0</v>
@@ -3317,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3340,48 +3333,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>401</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D2">
         <v>15000000</v>
@@ -3402,7 +3395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,200 +3419,200 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>401</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" t="s">
         <v>426</v>
-      </c>
-      <c r="E2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I2" t="s">
-        <v>464</v>
-      </c>
-      <c r="J2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C3" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" t="s">
         <v>427</v>
       </c>
-      <c r="E3" t="s">
-        <v>463</v>
-      </c>
-      <c r="F3" t="s">
-        <v>380</v>
-      </c>
-      <c r="G3" t="s">
-        <v>466</v>
-      </c>
       <c r="H3" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="I3" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="J3" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="E4" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G4" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="H4" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="I4" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="J4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C5" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="E5" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="F5" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="G5" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="H5" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="I5" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="J5" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
         <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="E6" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G6" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="H6" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="I6" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="J6" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3649,88 +3642,88 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
         <v>205</v>
-      </c>
-      <c r="B2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
         <v>207</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" t="s">
         <v>208</v>
-      </c>
-      <c r="C3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
         <v>210</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>211</v>
       </c>
-      <c r="D4" t="s">
-        <v>212</v>
-      </c>
       <c r="E4" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" t="s">
         <v>234</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" t="s">
         <v>236</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" t="s">
         <v>237</v>
-      </c>
-      <c r="C6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
         <v>239</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>240</v>
       </c>
-      <c r="D7" t="s">
-        <v>241</v>
-      </c>
       <c r="E7" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -3739,19 +3732,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="19" collapsed="1"/>
     <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="19" collapsed="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3777,10 +3771,10 @@
         <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3791,13 +3785,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>439</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -3808,35 +3802,35 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>439</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
         <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q14" r:id="rId1" display="www.facebook.com" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="R14" r:id="rId2" display="www.linkedin.com" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="Q15" r:id="rId3" display="www.facebook.com" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="R15" r:id="rId4" display="www.linkedin.com" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
-    <hyperlink ref="Q3" r:id="rId5" display="www.facebook.com" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
-    <hyperlink ref="R3" r:id="rId6" display="www.linkedin.com" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
+    <hyperlink ref="Q14" r:id="rId1" display="www.facebook.com"/>
+    <hyperlink ref="R14" r:id="rId2" display="www.linkedin.com"/>
+    <hyperlink ref="Q15" r:id="rId3" display="www.facebook.com"/>
+    <hyperlink ref="R15" r:id="rId4" display="www.linkedin.com"/>
+    <hyperlink ref="Q3" r:id="rId5" display="www.facebook.com"/>
+    <hyperlink ref="R3" r:id="rId6" display="www.linkedin.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
@@ -3844,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3869,57 +3863,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" t="s">
         <v>116</v>
-      </c>
-      <c r="I2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3929,11 +3923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3972,22 +3966,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
         <v>122</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4023,86 +4017,86 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>248</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" t="s">
+        <v>413</v>
+      </c>
+      <c r="X2" s="27" t="s">
         <v>249</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" t="s">
-        <v>423</v>
-      </c>
-      <c r="X2" s="27" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>252</v>
-      </c>
       <c r="E3" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>253</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>254</v>
       </c>
-      <c r="D4" t="s">
-        <v>255</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X4" s="27"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>256</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>257</v>
-      </c>
       <c r="E5" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5">
         <v>5000000</v>
@@ -4111,16 +4105,16 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>258</v>
       </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>259</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X6" s="27"/>
     </row>
@@ -4133,11 +4127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4157,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -4172,197 +4166,197 @@
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4371,7 +4365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4437,220 +4431,220 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="V1" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AL1" s="3"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>67</v>
       </c>
-      <c r="M7" t="s">
-        <v>68</v>
-      </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O7">
         <v>654927</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" t="s">
         <v>347</v>
       </c>
-      <c r="C8" t="s">
-        <v>348</v>
-      </c>
       <c r="D8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" t="s">
+        <v>477</v>
+      </c>
+      <c r="F8" t="s">
         <v>316</v>
       </c>
-      <c r="E8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F8" t="s">
-        <v>317</v>
-      </c>
       <c r="G8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
         <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
       </c>
       <c r="J8">
         <v>281001</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
+        <v>321</v>
+      </c>
+      <c r="M8" t="s">
         <v>322</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>323</v>
-      </c>
-      <c r="N8" t="s">
-        <v>324</v>
       </c>
       <c r="O8">
         <v>200300</v>
       </c>
       <c r="P8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q8">
         <v>2121212121</v>
@@ -4662,7 +4656,7 @@
         <v>4141414141</v>
       </c>
       <c r="T8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U8">
         <v>5151515151</v>
@@ -4672,49 +4666,49 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" t="s">
         <v>347</v>
       </c>
-      <c r="C9" t="s">
-        <v>348</v>
-      </c>
       <c r="D9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" t="s">
         <v>326</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>327</v>
       </c>
-      <c r="H9" t="s">
-        <v>328</v>
-      </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>201301</v>
       </c>
       <c r="K9" t="s">
+        <v>328</v>
+      </c>
+      <c r="L9" t="s">
+        <v>371</v>
+      </c>
+      <c r="M9" t="s">
         <v>329</v>
       </c>
-      <c r="L9" t="s">
-        <v>372</v>
-      </c>
-      <c r="M9" t="s">
-        <v>330</v>
-      </c>
       <c r="N9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O9">
         <v>10016</v>
       </c>
       <c r="P9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q9">
         <v>98765429</v>
@@ -4726,7 +4720,7 @@
         <v>4141414141</v>
       </c>
       <c r="T9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U9">
         <v>5151515151</v>
@@ -4736,49 +4730,49 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" t="s">
         <v>347</v>
       </c>
-      <c r="C10" t="s">
-        <v>348</v>
-      </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J10">
         <v>500700</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
+        <v>332</v>
+      </c>
+      <c r="M10" t="s">
         <v>333</v>
       </c>
-      <c r="M10" t="s">
-        <v>334</v>
-      </c>
       <c r="N10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O10">
         <v>2834</v>
       </c>
       <c r="P10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q10">
         <v>1629539588</v>
@@ -4790,7 +4784,7 @@
         <v>4141414141</v>
       </c>
       <c r="T10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U10">
         <v>5151515151</v>
@@ -4800,52 +4794,52 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" t="s">
         <v>350</v>
       </c>
-      <c r="C11" t="s">
-        <v>351</v>
-      </c>
       <c r="D11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E11" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H11" t="s">
+        <v>388</v>
+      </c>
+      <c r="I11" t="s">
         <v>341</v>
-      </c>
-      <c r="H11" t="s">
-        <v>389</v>
-      </c>
-      <c r="I11" t="s">
-        <v>342</v>
       </c>
       <c r="J11">
         <v>560003</v>
       </c>
       <c r="K11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M11" t="s">
+        <v>388</v>
+      </c>
+      <c r="N11" t="s">
         <v>341</v>
-      </c>
-      <c r="M11" t="s">
-        <v>389</v>
-      </c>
-      <c r="N11" t="s">
-        <v>342</v>
       </c>
       <c r="O11">
         <v>560003</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>9999999999</v>
@@ -4857,13 +4851,13 @@
         <v>9955875125</v>
       </c>
       <c r="T11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U11">
         <v>9595956632</v>
       </c>
       <c r="V11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AJ11" s="6"/>
       <c r="AK11"/>
@@ -4876,7 +4870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4908,100 +4902,100 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="G2">
         <v>2019</v>
       </c>
       <c r="H2" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3">
         <v>2020</v>
       </c>
       <c r="H3" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="G4">
         <v>2021</v>
       </c>
       <c r="H4" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -5011,12 +5005,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5035,148 +5029,148 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>217</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>218</v>
-      </c>
-      <c r="F2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" t="s">
         <v>220</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" t="s">
         <v>230</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" t="s">
         <v>231</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" t="s">
-        <v>232</v>
-      </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5185,7 +5179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5203,31 +5197,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5236,7 +5230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5268,148 +5262,148 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>154</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>155</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
         <v>156</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>157</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>158</v>
-      </c>
       <c r="O2" t="s">
+        <v>180</v>
+      </c>
+      <c r="P2" t="s">
         <v>181</v>
-      </c>
-      <c r="P2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" t="s">
         <v>159</v>
-      </c>
-      <c r="B3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
         <v>161</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>162</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>163</v>
-      </c>
-      <c r="K3" t="s">
-        <v>164</v>
       </c>
       <c r="L3">
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" t="s">
         <v>165</v>
       </c>
-      <c r="B4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
       <c r="G4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
         <v>156</v>
       </c>
-      <c r="H4" t="s">
-        <v>157</v>
-      </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5419,7 +5413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5446,63 +5440,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
         <v>187</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>188</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>189</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>190</v>
       </c>
-      <c r="E2" t="s">
-        <v>191</v>
-      </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>201300</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2">
         <v>243634535</v>
@@ -5511,36 +5505,36 @@
         <v>8867765</v>
       </c>
       <c r="K2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
         <v>193</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>195</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>196</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
       </c>
       <c r="G3">
         <v>400523</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <v>599546546</v>
@@ -5549,36 +5543,36 @@
         <v>1084566</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
         <v>199</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
-        <v>201</v>
-      </c>
       <c r="D4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" t="s">
         <v>190</v>
       </c>
-      <c r="E4" t="s">
-        <v>191</v>
-      </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>500900</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>745465656</v>
@@ -5587,7 +5581,7 @@
         <v>45654656</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/SmokeTestCases.xlsx
+++ b/SmokeTestCases.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="622" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="622" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Institutions" sheetId="22" r:id="rId1"/>
@@ -24,9 +24,8 @@
     <sheet name="InvestorDistribution" sheetId="43" r:id="rId15"/>
     <sheet name="Activities" sheetId="39" r:id="rId16"/>
     <sheet name="Users" sheetId="29" r:id="rId17"/>
-    <sheet name="SpecialChar" sheetId="10" r:id="rId18"/>
-    <sheet name="CustomEmailFolder" sheetId="35" r:id="rId19"/>
-    <sheet name="Report" sheetId="36" r:id="rId20"/>
+    <sheet name="CustomEmailFolder" sheetId="35" r:id="rId18"/>
+    <sheet name="Report" sheetId="36" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -39,7 +38,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,94 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="522">
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>ADMIN REG</t>
-  </si>
-  <si>
-    <t>FOLDER</t>
-  </si>
-  <si>
-    <t>TARGET REG</t>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
-    <t>FOLDER_NAME</t>
-  </si>
-  <si>
-    <t>TAR_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>TAR_LAST_NAME</t>
-  </si>
-  <si>
-    <t>NICK_NAME</t>
-  </si>
-  <si>
-    <t>FIRM_NAME</t>
-  </si>
-  <si>
-    <t>XYZ_NAME</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>scv</t>
-  </si>
-  <si>
-    <t>adf</t>
-  </si>
-  <si>
-    <t>asdfasds</t>
-  </si>
-  <si>
-    <t>afdvsdv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vsdfvs </t>
-  </si>
-  <si>
-    <t>sdvs</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>Invalid Folder Name</t>
-  </si>
-  <si>
-    <t>(Internal)</t>
-  </si>
-  <si>
-    <t>(Shared)</t>
-  </si>
-  <si>
-    <t>INVALID_FOLDER_NAME</t>
-  </si>
-  <si>
-    <t>INVALID_FOLDER_DESCRIPTION</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="485">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -224,21 +136,9 @@
     <t>Commitment_ID</t>
   </si>
   <si>
-    <t>PE&lt;,&gt;,:,",/,\,?,*,{,."</t>
-  </si>
-  <si>
-    <t>ADMIN&lt;,&gt;,:,",/,\,?,*,{,."</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
-    <t>CRM"&lt;,&gt;,:,",/,\,?,*,{,.</t>
-  </si>
-  <si>
-    <t>User1"&lt;,&gt;,:,",/,\,?,*,{,.</t>
-  </si>
-  <si>
     <t>Mailing_Street</t>
   </si>
   <si>
@@ -257,12 +157,6 @@
     <t>Mailing_State</t>
   </si>
   <si>
-    <t>Folder []{}/\?|&lt;&gt;*:</t>
-  </si>
-  <si>
-    <t>(Common)</t>
-  </si>
-  <si>
     <t>Record_Type</t>
   </si>
   <si>
@@ -503,9 +397,6 @@
     <t>Email_Template_Folder_Label</t>
   </si>
   <si>
-    <t>PE Test Email Folder</t>
-  </si>
-  <si>
     <t>Public_Folder_Access</t>
   </si>
   <si>
@@ -521,9 +412,6 @@
     <t>Email_Template_Name</t>
   </si>
   <si>
-    <t>PE Test Custom Email Template</t>
-  </si>
-  <si>
     <t>PE Test Email Description</t>
   </si>
   <si>
@@ -1424,9 +1312,6 @@
     <t>Capital_Returned_NonRecallable</t>
   </si>
   <si>
-    <t>10/14/2019</t>
-  </si>
-  <si>
     <t>FC - 146</t>
   </si>
   <si>
@@ -1472,30 +1357,6 @@
     <t>CMT - 000936</t>
   </si>
   <si>
-    <t>Custom Report Folder75932</t>
-  </si>
-  <si>
-    <t>Custom Report93397</t>
-  </si>
-  <si>
-    <t>deelroom+16569@gmail.com</t>
-  </si>
-  <si>
-    <t>deelroom+91676@gmail.com</t>
-  </si>
-  <si>
-    <t>deelroom+79864@gmail.com</t>
-  </si>
-  <si>
-    <t>deelroom+41020@gmail.com</t>
-  </si>
-  <si>
-    <t>deelroom+15819@gmail.com</t>
-  </si>
-  <si>
-    <t>3/18/2020</t>
-  </si>
-  <si>
     <t>3/20/2020</t>
   </si>
   <si>
@@ -1505,45 +1366,6 @@
     <t>CMT - 000931</t>
   </si>
   <si>
-    <t>3/22/2020</t>
-  </si>
-  <si>
-    <t>3/23/2020</t>
-  </si>
-  <si>
-    <t>3.75E8</t>
-  </si>
-  <si>
-    <t>3/26/2020</t>
-  </si>
-  <si>
-    <t>3/29/2020</t>
-  </si>
-  <si>
-    <t>2.8E7</t>
-  </si>
-  <si>
-    <t>4/3/2020</t>
-  </si>
-  <si>
-    <t>TestCompany1 - Mar 2020</t>
-  </si>
-  <si>
-    <t>TestCompany2 - Mar 2020</t>
-  </si>
-  <si>
-    <t>TestCompany3 - Mar 2020</t>
-  </si>
-  <si>
-    <t>deelroom+74427@gmail.com</t>
-  </si>
-  <si>
-    <t>deelroom+49521@gmail.com</t>
-  </si>
-  <si>
-    <t>3/19/2020</t>
-  </si>
-  <si>
     <t>400000</t>
   </si>
   <si>
@@ -1631,21 +1453,87 @@
     <t>ID-0629</t>
   </si>
   <si>
-    <t>FD-0248</t>
-  </si>
-  <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>CustomReportFolder49493</t>
+  </si>
+  <si>
+    <t>CustomReport55450</t>
+  </si>
+  <si>
+    <t>PETestEmailFolder42061</t>
+  </si>
+  <si>
+    <t>PETestCustomEmailTemplate64552</t>
+  </si>
+  <si>
+    <t>deelroom+58795@gmail.com</t>
+  </si>
+  <si>
+    <t>deelroom+38319@gmail.com</t>
+  </si>
+  <si>
+    <t>deelroom+37494@gmail.com</t>
+  </si>
+  <si>
+    <t>deelroom+59581@gmail.com</t>
+  </si>
+  <si>
+    <t>deelroom+26462@gmail.com</t>
+  </si>
+  <si>
+    <t>7/20/2020</t>
+  </si>
+  <si>
+    <t>7/21/2020</t>
+  </si>
+  <si>
+    <t>7/23/2020</t>
+  </si>
+  <si>
+    <t>7/24/2020</t>
+  </si>
+  <si>
+    <t>4.5E8</t>
+  </si>
+  <si>
+    <t>7/27/2020</t>
+  </si>
+  <si>
+    <t>7/30/2020</t>
+  </si>
+  <si>
+    <t>4.2E7</t>
+  </si>
+  <si>
+    <t>8/4/2020</t>
+  </si>
+  <si>
+    <t>TestCompany1 - Jul 2020</t>
+  </si>
+  <si>
+    <t>TestCompany2 - Jul 2020</t>
+  </si>
+  <si>
+    <t>TestCompany3 - Jul 2020</t>
+  </si>
+  <si>
+    <t>deelroom+18644@gmail.com</t>
+  </si>
+  <si>
+    <t>deelroom+21662@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1690,7 +1578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,18 +1587,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1718,91 +1600,66 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2082,22 +1939,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2123,112 +1980,112 @@
     <col min="23" max="23" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O3">
         <v>210310</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="V3">
         <v>3636366336</v>
@@ -2237,41 +2094,41 @@
         <v>554477331</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O5">
         <v>900268</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="V5">
         <v>66228811</v>
@@ -2280,297 +2137,297 @@
         <v>330548934</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="I12" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="J12" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K12" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O12">
         <v>281001</v>
       </c>
       <c r="P12" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="Q12" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="R12" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="S12" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="T12">
         <v>200300</v>
       </c>
       <c r="U12" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="V12">
         <v>2121212121</v>
       </c>
-      <c r="W12" s="18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="W12" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="J13" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K13" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="M13" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O13">
         <v>201301</v>
       </c>
       <c r="P13" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="Q13" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="R13" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="S13" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="T13">
         <v>10016</v>
       </c>
       <c r="U13" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="V13">
         <v>98765429</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="I14" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="J14" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K14" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="M14" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="N14" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="O14">
         <v>500700</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="Q14" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="R14" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="S14" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="T14">
         <v>2834</v>
       </c>
       <c r="U14" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="V14">
         <v>1629539588</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="H15" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="I15" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="J15" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="K15" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="L15" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="M15" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="N15" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="O15">
         <v>560003</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="Q15" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="R15" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="S15" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="T15">
         <v>560003</v>
       </c>
       <c r="U15" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="V15">
         <v>9999999999</v>
@@ -2586,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2594,7 +2451,7 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
@@ -2602,65 +2459,65 @@
     <col min="4" max="4" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
@@ -2677,7 +2534,7 @@
       <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1" collapsed="1"/>
@@ -2689,10 +2546,10 @@
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.5703125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5703125" style="15" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="22" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="21.42578125" customWidth="1" collapsed="1"/>
@@ -2701,352 +2558,352 @@
     <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="N1" s="22" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="H1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E2">
         <v>20000000</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
-        <v>474</v>
-      </c>
-      <c r="P2" s="21"/>
-      <c r="T2" s="31" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>471</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="T2" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E3">
         <v>10000000</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="H3" t="s">
-        <v>475</v>
-      </c>
-      <c r="T3" s="31"/>
-    </row>
-    <row r="4" spans="1:20">
+        <v>472</v>
+      </c>
+      <c r="T3" s="28"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E4">
         <v>15000000</v>
       </c>
       <c r="H4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J4">
         <v>7.5</v>
       </c>
-      <c r="T4" s="31"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="E5">
         <v>25000000</v>
       </c>
       <c r="H5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="J5">
         <v>7.5</v>
       </c>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="T5" s="28"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="E6">
         <v>5000000</v>
       </c>
       <c r="H6" t="s">
-        <v>481</v>
-      </c>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20">
+        <v>476</v>
+      </c>
+      <c r="T6" s="28"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="E7">
         <v>2000000</v>
       </c>
       <c r="H7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20">
+        <v>40</v>
+      </c>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="E8">
         <v>12000000</v>
       </c>
       <c r="H8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="9" spans="1:20">
+        <v>40</v>
+      </c>
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E9">
         <v>20000000</v>
       </c>
       <c r="F9" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="H9" t="s">
-        <v>474</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="L9" s="17">
+        <v>471</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="L9" s="14">
         <v>2000000</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="15">
         <v>18000000</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="14">
         <v>0</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="R9" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="P9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>448</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E10">
         <v>20000000</v>
       </c>
       <c r="F10" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="G10" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="H10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K10" s="18">
+        <v>155</v>
+      </c>
+      <c r="K10" s="15">
         <v>2000000</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <v>2000000</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="15">
         <v>18000000</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="15">
         <v>0</v>
       </c>
-      <c r="O10" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="P10" s="17">
+      <c r="O10" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="P10" s="14">
         <v>0</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="17">
         <v>4800000.0010000002</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="17">
         <v>4000000</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="17">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3059,14 +2916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3080,250 +2937,250 @@
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="18" t="s">
-        <v>342</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>437</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="F2" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="H2" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="I2" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="J2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>397</v>
+        <v>472</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>360</v>
       </c>
       <c r="M2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="18" t="s">
-        <v>343</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
       <c r="F3" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="G3" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="H3" t="s">
-        <v>493</v>
+        <v>434</v>
       </c>
       <c r="I3" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="J3" t="s">
-        <v>475</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>399</v>
+        <v>472</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>362</v>
       </c>
       <c r="M3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="18" t="s">
-        <v>344</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="E4" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="F4" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="G4" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="I4" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="J4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K4" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="L4" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="M4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="18" t="s">
-        <v>345</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="C5" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="D5" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="E5" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="F5" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="G5" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="H5" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="I5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="J5" t="s">
-        <v>475</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>402</v>
+        <v>472</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>365</v>
       </c>
       <c r="M5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="18" t="s">
-        <v>346</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="C6" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="D6" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="E6" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="G6" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="H6" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="I6" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="J6" t="s">
-        <v>475</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>403</v>
+        <v>472</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="M6" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3332,14 +3189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3353,97 +3210,97 @@
     <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="K1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>424</v>
+        <v>72</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>387</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G2" s="17">
+        <v>472</v>
+      </c>
+      <c r="G2" s="14">
         <v>5500000</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="14">
         <v>2000000</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="K2" s="17">
+      <c r="I2" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="K2" s="14">
         <v>750000</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="M2" s="18">
+      <c r="L2" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="M2" s="15">
         <v>0</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="15">
         <v>0</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="15">
         <v>10</v>
       </c>
     </row>
@@ -3453,14 +3310,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3471,53 +3328,53 @@
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="D2">
         <v>15000000</v>
@@ -3538,14 +3395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3557,205 +3414,205 @@
     <col min="10" max="10" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
-        <v>515</v>
+        <v>456</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="E2" t="s">
-        <v>501</v>
+        <v>442</v>
       </c>
       <c r="F2" t="s">
-        <v>502</v>
+        <v>443</v>
       </c>
       <c r="G2" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="H2" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="I2" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="J2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="E3" t="s">
-        <v>502</v>
+        <v>443</v>
       </c>
       <c r="F3" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="G3" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="H3" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="I3" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="J3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="C4" t="s">
-        <v>517</v>
+        <v>458</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="E4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" t="s">
+        <v>448</v>
+      </c>
+      <c r="I4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G5" t="s">
+        <v>451</v>
+      </c>
+      <c r="H5" t="s">
+        <v>451</v>
+      </c>
+      <c r="I5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" t="s">
         <v>460</v>
       </c>
-      <c r="F4" t="s">
-        <v>448</v>
-      </c>
-      <c r="G4" t="s">
-        <v>507</v>
-      </c>
-      <c r="H4" t="s">
-        <v>507</v>
-      </c>
-      <c r="I4" t="s">
-        <v>507</v>
-      </c>
-      <c r="J4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B5" t="s">
-        <v>514</v>
-      </c>
-      <c r="C5" t="s">
-        <v>518</v>
-      </c>
-      <c r="D5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5" t="s">
-        <v>508</v>
-      </c>
-      <c r="F5" t="s">
-        <v>509</v>
-      </c>
-      <c r="G5" t="s">
-        <v>510</v>
-      </c>
-      <c r="H5" t="s">
-        <v>510</v>
-      </c>
-      <c r="I5" t="s">
-        <v>510</v>
-      </c>
-      <c r="J5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B6" t="s">
-        <v>520</v>
-      </c>
-      <c r="C6" t="s">
-        <v>519</v>
-      </c>
       <c r="D6" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="E6" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="F6" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="G6" t="s">
-        <v>512</v>
+        <v>453</v>
       </c>
       <c r="H6" t="s">
-        <v>512</v>
+        <v>453</v>
       </c>
       <c r="I6" t="s">
-        <v>512</v>
+        <v>453</v>
       </c>
       <c r="J6" t="s">
-        <v>513</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -3764,14 +3621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3780,93 +3637,93 @@
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B7" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" t="s">
-        <v>278</v>
-      </c>
       <c r="E7" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -3875,94 +3732,94 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="19" collapsed="1"/>
     <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="16384" width="19" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3980,213 +3837,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1">
-      <c r="A1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" collapsed="1"/>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4199,215 +3857,79 @@
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>465</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X6"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" t="s">
-        <v>460</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" t="s">
-        <v>461</v>
-      </c>
-      <c r="X3" s="30"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="X4" s="30"/>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5">
-        <v>5000000</v>
-      </c>
-      <c r="X5" s="30"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="X6" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="X2:X6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4418,47 +3940,47 @@
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4467,15 +3989,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" t="s">
+        <v>422</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" t="s">
+        <v>423</v>
+      </c>
+      <c r="X3" s="27"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="X4" s="27"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5">
+        <v>5000000</v>
+      </c>
+      <c r="X5" s="27"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="X6" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="X2:X6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4487,217 +4145,217 @@
     <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4706,7 +4364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4714,7 +4372,7 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4750,242 +4408,242 @@
     <col min="34" max="34" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="14.42578125" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15" style="9" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15" style="6" customWidth="1" collapsed="1"/>
     <col min="38" max="38" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="39" max="39" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="6" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="S1" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL1" s="3"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L7" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="M7" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AL1" s="4"/>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" t="s">
-        <v>103</v>
-      </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O7">
         <v>654927</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>281001</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="M8" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="N8" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="O8">
         <v>200300</v>
       </c>
       <c r="P8" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="Q8">
         <v>2121212121</v>
@@ -4997,59 +4655,59 @@
         <v>4141414141</v>
       </c>
       <c r="T8" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="U8">
         <v>5151515151</v>
       </c>
-      <c r="AJ8" s="9"/>
+      <c r="AJ8" s="6"/>
       <c r="AK8"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="G9" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="H9" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>201301</v>
       </c>
       <c r="K9" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="L9" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="M9" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="N9" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="O9">
         <v>10016</v>
       </c>
       <c r="P9" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="Q9">
         <v>98765429</v>
@@ -5061,59 +4719,59 @@
         <v>4141414141</v>
       </c>
       <c r="T9" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="U9">
         <v>5151515151</v>
       </c>
-      <c r="AJ9" s="9"/>
+      <c r="AJ9" s="6"/>
       <c r="AK9"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="H10" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="I10" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="J10">
         <v>500700</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="M10" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="N10" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="O10">
         <v>2834</v>
       </c>
       <c r="P10" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="Q10">
         <v>1629539588</v>
@@ -5125,62 +4783,62 @@
         <v>4141414141</v>
       </c>
       <c r="T10" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="U10">
         <v>5151515151</v>
       </c>
-      <c r="AJ10" s="9"/>
+      <c r="AJ10" s="6"/>
       <c r="AK10"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="G11" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="H11" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="I11" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="J11">
         <v>560003</v>
       </c>
       <c r="K11" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="L11" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="M11" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="N11" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="O11">
         <v>560003</v>
       </c>
       <c r="P11" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>9999999999</v>
@@ -5192,15 +4850,15 @@
         <v>9955875125</v>
       </c>
       <c r="T11" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="U11">
         <v>9595956632</v>
       </c>
       <c r="V11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ11" s="9"/>
+        <v>169</v>
+      </c>
+      <c r="AJ11" s="6"/>
       <c r="AK11"/>
     </row>
   </sheetData>
@@ -5211,7 +4869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,124 +4877,124 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="41.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.28515625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G2">
         <v>2019</v>
       </c>
       <c r="H2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>269</v>
+      <c r="F3" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="G3">
         <v>2020</v>
       </c>
       <c r="H3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G4">
         <v>2021</v>
       </c>
       <c r="H4" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5346,7 +5004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5354,7 +5012,7 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5365,153 +5023,153 @@
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5520,49 +5178,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5571,14 +5229,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5598,153 +5256,153 @@
     <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1">
-      <c r="A1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="O2" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="L3">
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5754,14 +5412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
@@ -5776,68 +5434,68 @@
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>201300</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>243634535</v>
@@ -5846,36 +5504,36 @@
         <v>8867765</v>
       </c>
       <c r="K2" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="G3">
         <v>400523</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>599546546</v>
@@ -5884,36 +5542,36 @@
         <v>1084566</v>
       </c>
       <c r="K3" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="L3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>500900</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I4">
         <v>745465656</v>
@@ -5922,7 +5580,7 @@
         <v>45654656</v>
       </c>
       <c r="K4" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/SmokeTestCases.xlsx
+++ b/SmokeTestCases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF1B54A-FF10-412A-A582-A0F69DA6AD55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622D2F1-F419-4E96-9D4B-441C95F88502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="622" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Institutions" sheetId="22" r:id="rId1"/>
@@ -826,9 +826,6 @@
     <t>TestSourceContact</t>
   </si>
   <si>
-    <t>Declined/De</t>
-  </si>
-  <si>
     <t>TestCompany2 - Jul 2020</t>
   </si>
   <si>
@@ -857,6 +854,9 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>Declined/Dead</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
@@ -2294,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,7 +2403,7 @@
         <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2411,10 +2411,10 @@
         <v>112</v>
       </c>
       <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
         <v>256</v>
-      </c>
-      <c r="C3" t="s">
-        <v>257</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2426,10 +2426,10 @@
         <v>113</v>
       </c>
       <c r="I3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" t="s">
         <v>258</v>
-      </c>
-      <c r="J3" t="s">
-        <v>259</v>
       </c>
       <c r="K3" t="s">
         <v>114</v>
@@ -2449,10 +2449,10 @@
         <v>115</v>
       </c>
       <c r="B4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
         <v>260</v>
-      </c>
-      <c r="C4" t="s">
-        <v>261</v>
       </c>
       <c r="G4" t="s">
         <v>110</v>
@@ -2542,7 +2542,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
         <v>135</v>
@@ -2580,7 +2580,7 @@
         <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
         <v>140</v>
@@ -2618,7 +2618,7 @@
         <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
         <v>145</v>
@@ -2840,7 +2840,7 @@
         <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
         <v>216</v>

--- a/SmokeTestCases.xlsx
+++ b/SmokeTestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\pe3.5_upgrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE0F27-72BC-4063-A310-B0D509C22C81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC9C02-0B21-416F-92F2-1A9E6C775106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Institutions" sheetId="1" r:id="rId1"/>
@@ -3884,7 +3884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5262,8 +5262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5438,7 +5438,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
